--- a/BD进度表.xlsx
+++ b/BD进度表.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allen/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>课外培训机构</t>
     <rPh sb="0" eb="1">
@@ -463,23 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-    <rPh sb="0" eb="1">
-      <t>qi ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张铁蛋</t>
-    <rPh sb="0" eb="1">
-      <t>zhang</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>tie dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上海浦东</t>
     <rPh sb="0" eb="1">
       <t>shag h</t>
@@ -490,44 +468,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>更新时间</t>
+    <rPh sb="0" eb="1">
+      <t>geng x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约周三见面</t>
+  </si>
+  <si>
     <t>未知</t>
-    <rPh sb="0" eb="1">
-      <t>wei z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍项目</t>
-    <rPh sb="0" eb="1">
-      <t>jie s</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>xiang m</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
-    <rPh sb="0" eb="1">
-      <t>geng x</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>shi jian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>小学</t>
+  </si>
+  <si>
+    <t>Vennie 熟悉我们项目，她负责介绍。</t>
+  </si>
+  <si>
+    <t>无锡培训学校</t>
+  </si>
+  <si>
+    <t>无锡</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Laura 介绍过，有兴趣</t>
+  </si>
+  <si>
+    <t>尽量约这周</t>
+  </si>
+  <si>
+    <t>广东实验中学</t>
+  </si>
+  <si>
+    <t>公立学校</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>微信，邮件</t>
+  </si>
+  <si>
+    <t>PPT介绍，电话沟通</t>
+  </si>
+  <si>
+    <t>下周去广州演示，面谈</t>
+  </si>
+  <si>
+    <t>南京27中</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>微信，电话</t>
+  </si>
+  <si>
+    <t>孔律师</t>
+  </si>
+  <si>
+    <t>周榕</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>补习班</t>
+  </si>
+  <si>
+    <t>黄铁蛋</t>
+  </si>
+  <si>
+    <t>介绍项目，去年暑假见面沟通过</t>
+  </si>
+  <si>
+    <t>周老师，黄校长</t>
+  </si>
+  <si>
+    <t>陈红 （副校长）</t>
+  </si>
+  <si>
+    <t>Vennie</t>
+  </si>
+  <si>
+    <t>技校</t>
+  </si>
+  <si>
+    <t>去年9月份见面沟通过，也跟老师沟通过，关于校本</t>
+  </si>
+  <si>
+    <t>跟踪是否有兴趣开课？</t>
+  </si>
+  <si>
+    <t>简单书面，微信介绍</t>
+  </si>
+  <si>
+    <t>约了在广州跟学校的计算机科长见面</t>
+  </si>
+  <si>
+    <t>世界外国语小学</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vennie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周四见面进一步沟通怎么推进</t>
+    </r>
+  </si>
+  <si>
+    <t>广州轻工高级技工学校</t>
+  </si>
+  <si>
+    <t>傅慧，退休老师</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,6 +642,29 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -568,22 +683,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -638,7 +758,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -673,7 +793,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -850,7 +970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -858,28 +978,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -908,10 +1028,10 @@
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -940,13 +1060,13 @@
         <v>20170320</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="K3">
         <v>20170320</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -980,8 +1100,8 @@
         <v>20170320</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1013,10 +1133,10 @@
         <v>20170320</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1026,20 +1146,20 @@
       <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
+      <c r="D8" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>25</v>
+      <c r="F8" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
+      <c r="H8" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
@@ -1051,7 +1171,7 @@
         <v>20170320</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1062,7 +1182,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1086,18 +1206,18 @@
         <v>20170320</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -1105,11 +1225,11 @@
       <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
+      <c r="G12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I12" t="s">
         <v>27</v>
@@ -1119,6 +1239,136 @@
       </c>
       <c r="K12">
         <v>20170320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1127,5 +1377,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>